--- a/Exel PLanning IoTProject.xlsx
+++ b/Exel PLanning IoTProject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://graafschapcollege-my.sharepoint.com/personal/floris_lenting_student_graafschapcollege_nl/Documents/jaar 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\IoTProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61FA4CC-D817-4951-86BF-0E728912A2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18698F-3AA8-4AA1-83B3-851C079A9934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B260032D-E241-4374-9235-163333C36397}"/>
   </bookViews>
@@ -282,13 +282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -416,9 +416,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,7 +439,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -759,7 +763,7 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,94 +783,94 @@
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="36" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="36" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="36" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="36" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="36" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="36" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="36" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="36" t="s">
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="40"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="38"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <f>Takenlijst!C4</f>
         <v>9</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
       <c r="N3" s="11"/>
@@ -916,12 +920,12 @@
         <f>Takenlijst!B5</f>
         <v>Probleemstelling formuleren</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <f>Takenlijst!C5</f>
         <v>1</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -977,13 +981,13 @@
         <f>Takenlijst!B6</f>
         <v>Doelstelling formuleren</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <f>Takenlijst!C6</f>
         <v>1</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
@@ -1038,14 +1042,14 @@
         <f>Takenlijst!B7</f>
         <v>Kijken of het project haalbaar is</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>Takenlijst!C7</f>
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
@@ -1099,7 +1103,7 @@
         <f>Takenlijst!B8</f>
         <v>Nagaan wat mogelijke risico's van het project zijn</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <f>Takenlijst!C8</f>
         <v>1</v>
       </c>
@@ -1107,7 +1111,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1160,7 +1164,7 @@
         <f>Takenlijst!B9</f>
         <v>Projectteam samenstellen</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <f>Takenlijst!C9</f>
         <v>1</v>
       </c>
@@ -1221,7 +1225,7 @@
         <f>Takenlijst!B10</f>
         <v>Algemeen plan van aanpak voor het project opstellen</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <f>Takenlijst!C10</f>
         <v>3</v>
       </c>
@@ -1231,7 +1235,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1282,7 +1286,7 @@
         <f>Takenlijst!B11</f>
         <v>Gedetailleert plan van aanpak maken voor de definitiefase</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <f>Takenlijst!C11</f>
         <v>1</v>
       </c>
@@ -1293,7 +1297,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -1341,7 +1345,7 @@
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="15">
         <v>7</v>
       </c>
@@ -1353,11 +1357,11 @@
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="13"/>
       <c r="S11" s="11"/>
@@ -1413,8 +1417,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1475,8 +1479,8 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
@@ -1537,7 +1541,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
       <c r="S14" s="5"/>
@@ -1581,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>21</v>
       </c>
       <c r="D15" s="11"/>
@@ -1597,21 +1601,21 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
       <c r="AH15" s="11"/>
@@ -1640,7 +1644,7 @@
       <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="30">
         <v>2</v>
       </c>
       <c r="D16" s="2"/>
@@ -1656,8 +1660,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1699,7 +1703,7 @@
       <c r="B17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
@@ -1717,8 +1721,8 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="4"/>
@@ -1759,7 +1763,7 @@
         <f>Takenlijst!B25</f>
         <v>Layout dashboard maken</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>2</v>
       </c>
       <c r="D18" s="2"/>
@@ -1779,7 +1783,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="3"/>
       <c r="W18" s="4"/>
       <c r="X18" s="2"/>
@@ -1819,7 +1823,7 @@
         <f>Takenlijst!B26</f>
         <v>Ontwerp voorleggen aan opdrachtgever/eindgebruikers</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="30">
         <v>2</v>
       </c>
       <c r="D19" s="2"/>
@@ -1840,8 +1844,8 @@
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="27"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -1879,7 +1883,7 @@
         <f>Takenlijst!B27</f>
         <v>Ontwerp finetunen</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <v>2</v>
       </c>
       <c r="D20" s="2"/>
@@ -1907,7 +1911,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="2"/>
+      <c r="AC20" s="25"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -1939,7 +1943,7 @@
         <f>Takenlijst!B28</f>
         <v>Gedetailleerd plan van aanpak maken voor de definitiefase</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="31">
         <v>1</v>
       </c>
       <c r="D21" s="5"/>
@@ -1968,8 +1972,8 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="5"/>
@@ -2029,14 +2033,14 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="2"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="44"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
@@ -2089,8 +2093,8 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="4"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="27"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
@@ -2151,8 +2155,8 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="3"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="26"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="4"/>
@@ -2213,7 +2217,7 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+      <c r="AJ25" s="26"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="2"/>
@@ -2274,7 +2278,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
+      <c r="AK26" s="26"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="3"/>
@@ -2335,8 +2339,8 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="2"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="25"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
@@ -2396,15 +2400,15 @@
       <c r="AK28" s="12"/>
       <c r="AL28" s="13"/>
       <c r="AM28" s="11"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="13"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="40"/>
       <c r="AW28" s="11"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
@@ -2456,8 +2460,8 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="2"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="2"/>
@@ -2518,10 +2522,10 @@
       <c r="AM30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="3"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="26"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="4"/>
@@ -2582,9 +2586,9 @@
       <c r="AQ31" s="7"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="7"/>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="45"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="6"/>
       <c r="AY31" s="6"/>
@@ -2644,11 +2648,11 @@
       <c r="AT32" s="12"/>
       <c r="AU32" s="12"/>
       <c r="AV32" s="13"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="12"/>
-      <c r="AY32" s="12"/>
-      <c r="AZ32" s="12"/>
-      <c r="BA32" s="13"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="40"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
@@ -2704,8 +2708,8 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
       <c r="AV33" s="4"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="3"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="26"/>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="3"/>
       <c r="BA33" s="4"/>
@@ -2766,8 +2770,8 @@
       <c r="AV34" s="4"/>
       <c r="AW34" s="2"/>
       <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
       <c r="BA34" s="4"/>
     </row>
     <row r="35" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2828,7 +2832,7 @@
       <c r="AX35" s="6"/>
       <c r="AY35" s="6"/>
       <c r="AZ35" s="6"/>
-      <c r="BA35" s="7"/>
+      <c r="BA35" s="45"/>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -2912,16 +2916,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AG2"/>
     <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,6 +3465,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E5CA06130F9D845A740A21B47AE201C" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f250b65df3a14937b705296a04c37db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a0953fe-28d7-40c1-abdc-6caf2783c63d" xmlns:ns3="68874893-418b-48f2-a3e2-ed65666aa787" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8ca278aeca63044c1f1ae0084a0844" ns2:_="" ns3:_="">
     <xsd:import namespace="2a0953fe-28d7-40c1-abdc-6caf2783c63d"/>
@@ -3625,22 +3644,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641450C8-A64D-42E0-B5DF-8A225584510A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065AC5F7-ABC4-49FB-914B-D150515A19F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192D246E-0013-4F20-BB20-48430DFC3AC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3657,21 +3678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065AC5F7-ABC4-49FB-914B-D150515A19F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641450C8-A64D-42E0-B5DF-8A225584510A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>